--- a/public/import_customers_template.xlsx
+++ b/public/import_customers_template.xlsx
@@ -28,7 +28,6 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -427,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,28 +434,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Фамилия*</t>
+          <t>Фамилия</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Имя*</t>
+          <t>Имя</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Телефон*</t>
+          <t>Телефон</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -472,6 +472,11 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>UTM метка</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Пол</t>
         </is>
       </c>
     </row>
@@ -488,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>79001234567</t>
+          <t>+79991234567</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,7 +508,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>instagram</t>
+          <t>qr</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>М</t>
         </is>
       </c>
     </row>
@@ -520,7 +530,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>79009876543</t>
+          <t>+79997654321</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,12 +540,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>15.03.1985</t>
+          <t>15.05.1985</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>google</t>
+          <t>direct</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ж</t>
         </is>
       </c>
     </row>

--- a/public/import_customers_template.xlsx
+++ b/public/import_customers_template.xlsx
@@ -56,10 +56,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,17 +449,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Фамилия</t>
+          <t>Фамилия*</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t>Имя*</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Телефон</t>
+          <t>Телефон*</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -481,74 +484,74 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Иванов</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Иван</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>+79991234567</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>79001234567</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>ivan@example.com</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>01.01.1990</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>qr</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>instagram</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>М</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Петрова</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Мария</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>+79997654321</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>79009876543</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>maria@example.com</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>15.05.1985</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>direct</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>15.03.1985</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>google</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>Ж</t>
         </is>
